--- a/Data/Excels/Syncolon/150_160/FarPoints_70.xlsx
+++ b/Data/Excels/Syncolon/150_160/FarPoints_70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A142"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>88,00</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>802,00</t>
+          <t>836,00</t>
         </is>
       </c>
     </row>
@@ -516,11 +516,7 @@
       <c r="A22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>728,00</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -538,11 +534,7 @@
       <c r="A28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>690,00</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -551,7 +543,11 @@
       <c r="A31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>750,00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -596,7 +592,11 @@
       <c r="A46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>716,00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -620,7 +620,11 @@
       <c r="A54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>622,00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -635,7 +639,11 @@
       <c r="A59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>574,00</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -650,246 +658,7 @@
       <c r="A64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>686,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>576,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>232,00</t>
         </is>
